--- a/biology/Botanique/Lithops_aucampiae/Lithops_aucampiae.xlsx
+++ b/biology/Botanique/Lithops_aucampiae/Lithops_aucampiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lithops aucampiae est une espèce de plantes à fleurs vivaces succulentes de la famille des Aizoaceae. Elle a été nommée d'après Juanita Aucamp, qui a trouvé un spécimen dans la ferme de son père à Postmasburg (province de Cap-Nord, Afrique du Sud) en 1929.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante du désert se trouve dans les régions des « ironstones », où l'on trouve du grès, du chert et de la quartzite au Transvaal, en Afrique du Sud. Il s'agit d'une zone de précipitations uniquement estivales[2]. L'aire de répartition naturelle de cette espèce s'étend de la province du Nord-Ouest à N. Cape Prov[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante du désert se trouve dans les régions des « ironstones », où l'on trouve du grès, du chert et de la quartzite au Transvaal, en Afrique du Sud. Il s'agit d'une zone de précipitations uniquement estivales. L'aire de répartition naturelle de cette espèce s'étend de la province du Nord-Ouest à N. Cape Prov.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'apparence variable, il n'en reste pas moins conforme à la morphologie typique de Lithops : deux feuilles épaisses et charnues dont la partie supérieure est formée d'un tissu translucide qui laisse entrer la lumière dans la partie souterraine de la plante. Les feuilles sont marron-gris et de tailles variées avec en surfaces un dessin différent selon les espèces. Ces feuilles sont séparées par une fissure d'où apparaît, au bout de la troisième année, une fleur jaune à la fin du printemps[3]. Dans la variété koelemanii la fenêtre et le sillon sont réduits.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'apparence variable, il n'en reste pas moins conforme à la morphologie typique de Lithops : deux feuilles épaisses et charnues dont la partie supérieure est formée d'un tissu translucide qui laisse entrer la lumière dans la partie souterraine de la plante. Les feuilles sont marron-gris et de tailles variées avec en surfaces un dessin différent selon les espèces. Ces feuilles sont séparées par une fissure d'où apparaît, au bout de la troisième année, une fleur jaune à la fin du printemps. Dans la variété koelemanii la fenêtre et le sillon sont réduits.
 </t>
         </is>
       </c>
